--- a/data/trans_bre/P23_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-58,98%</t>
+          <t>149,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-48,36%</t>
+          <t>-47,15%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-11,2%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>970,26%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 5,42</t>
+          <t>-3,54; 14,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 1,09</t>
+          <t>-16,09; 4,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 2,09</t>
+          <t>-12,16; 9,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-70,45; 217,86</t>
+          <t>4,26; 25,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-90,27; 38,12</t>
+          <t>-80,96; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-91,76; 93,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-88,58; 519,79</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>116,55%</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-55,12%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-38,26%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>119,77%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>87,56%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 9,14</t>
+          <t>-1,68; 8,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 0,5</t>
+          <t>-7,34; 1,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 3,22</t>
+          <t>-1,36; 5,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 386,35</t>
+          <t>-2,04; 6,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-89,3; 33,89</t>
+          <t>-32,1; 568,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,72; 188,31</t>
+          <t>-84,8; 99,6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-55,53; 1000,67</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-49,12; 468,0</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>414,56%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>129,83%</t>
+          <t>251,98%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-50,63%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 3,98</t>
+          <t>-2,16; 4,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,83</t>
+          <t>-0,64; 4,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,17</t>
+          <t>-2,38; 5,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-75,65; 311,63</t>
+          <t>-14,46; 1,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-73,62; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-47,65; 768,73</t>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-76,96; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-84,44; 41,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 179,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,33; 20,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,96; 98,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>84,63%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-20,41%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>54,87%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 5,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 1,64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 3,95</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 5,8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; 324,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-70,87; 83,88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-29,0; 279,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-31,89; 182,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,91</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>149,92%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-47,15%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-11,2%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>970,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.169853338093901</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.394033753488081</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.751974343519577</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>13.7195189324831</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.522790272606468</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.6061476697942326</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.3107958247122057</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>10.79765304173375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 14,25</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,09; 4,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,16; 9,04</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,26; 25,64</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-80,96; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-88,58; 519,79</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.370850151458415</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.15243463716573</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-17.81137493965985</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.549537235899523</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.801439210865049</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.14751103476422</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.8416173306533</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.927656917928044</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.41308650160928</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>3.026931261774001</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,45</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,83</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>86,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-38,26%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>119,77%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>87,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; 8,6</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; 1,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 5,74</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 6,78</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-32,1; 568,02</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-84,8; 99,6</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-55,53; 1000,67</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,12; 468,0</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.62969331502782</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.576360806668607</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.408946840528316</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.844143719601246</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.458351625235398</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3358999568368323</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.329759888301206</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9166960243328566</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,89</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>61,02%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>251,98%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>69,73%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-50,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.02895570806433035</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.91261364305196</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.172326975783228</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.961693247782184</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1704200106249908</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8375467240057195</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5183062039077639</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5155554683018031</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 4,84</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 4,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 5,25</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,46; 1,55</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-73,62; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-76,96; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-84,44; 41,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.93170850531045</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.258679736439918</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.933319943780827</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.687141617554531</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>7.63513462323289</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.181512525560904</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>10.11422259672795</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.802755880004563</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +817,207 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.328268259220919</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.728774608894029</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.402698510025932</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-4.382971170230816</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.5776658396510561</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>2.910858170681128</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.63899163404112</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4829117734803895</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.718253519004191</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4282652838695342</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.678437464434282</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.63023675791312</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8656129749893839</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.7901962267175098</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8452451757662813</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.678044421235224</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.954460883125273</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.864960917549953</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.599068445145228</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>9.120961071067784</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>6.826142162553809</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4912091334381969</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>84,63%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-20,41%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>54,87%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>40,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 5,98</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 1,64</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 3,95</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 5,8</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-9,3; 324,72</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-70,87; 83,88</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-29,0; 279,7</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-31,89; 182,99</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.789086669848603</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.760106692393887</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.328350749026866</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.445399814682921</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.186102991654034</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2158551852196872</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4520545950150029</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5087620543490288</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.4261864952942746</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.670491109215157</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.568853887831751</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.461897449401288</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.00042608215360681</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6987685411876102</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.358261475497433</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.286258975673402</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.967741896455674</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.583852449980733</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.867017221217905</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.124960710463426</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.947992931701101</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8613448195321479</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.533320912129831</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.00468350727864</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
